--- a/final_papers.xlsx
+++ b/final_papers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsecam\Documents\cafo_update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsecam\Documents\GitHub\outcomes_exposures_V002\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="DistillerSR" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DistillerSR!$B$1:$B$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DistillerSR!$A$1:$N$82</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="144">
   <si>
     <t>Refid</t>
   </si>
@@ -427,6 +427,33 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Swine</t>
+  </si>
+  <si>
+    <t>Poultry</t>
+  </si>
+  <si>
+    <t>Mink</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Country1</t>
   </si>
 </sst>
 </file>
@@ -446,18 +473,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -475,7 +496,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,18 +801,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="161.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,8 +847,14 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -839,7 +864,7 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
@@ -866,31 +891,32 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -904,727 +930,3192 @@
       <c r="L3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>137</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G19" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H19" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>137</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F20" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>136</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>137</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>141</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
+        <v>139</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>137</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>137</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" t="s">
+        <v>138</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s">
+        <v>136</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" t="s">
+        <v>140</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>141</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" t="s">
+        <v>138</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" t="s">
+        <v>137</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>140</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" t="s">
+        <v>136</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" t="s">
+        <v>140</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" t="s">
+        <v>138</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" t="s">
+        <v>137</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" t="s">
+        <v>136</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" t="s">
+        <v>142</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" t="s">
+        <v>141</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" t="s">
+        <v>137</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" t="s">
+        <v>138</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" t="s">
+        <v>140</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
+        <v>138</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" t="s">
+        <v>137</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" t="s">
+        <v>136</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" t="s">
+        <v>139</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" t="s">
+        <v>141</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" t="s">
+        <v>137</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" t="s">
+        <v>138</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
+        <v>140</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" t="s">
+        <v>136</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" t="s">
+        <v>137</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" t="s">
+        <v>102</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" t="s">
+        <v>137</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" t="s">
+        <v>138</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" t="s">
+        <v>136</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" t="s">
+        <v>140</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" t="s">
+        <v>139</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" t="s">
+        <v>136</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" t="s">
+        <v>137</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" t="s">
+        <v>138</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72" t="s">
+        <v>112</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" t="s">
+        <v>136</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" t="s">
+        <v>116</v>
+      </c>
+      <c r="F73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
         <v>117</v>
       </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" t="s">
+        <v>137</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" t="s">
         <v>119</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D74" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E74" t="s">
         <v>121</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F74" t="s">
         <v>122</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G74" t="s">
         <v>123</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H74" t="s">
         <v>117</v>
       </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" t="s">
+        <v>137</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" t="s">
+        <v>138</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" t="s">
+        <v>122</v>
+      </c>
+      <c r="G76" t="s">
+        <v>123</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" t="s">
+        <v>136</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" t="s">
+        <v>123</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" t="s">
+        <v>140</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" t="s">
+        <v>121</v>
+      </c>
+      <c r="F78" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" t="s">
+        <v>123</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" t="s">
+        <v>141</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" t="s">
+        <v>123</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" t="s">
+        <v>139</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C80" t="s">
         <v>125</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D80" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E80" t="s">
         <v>127</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F80" t="s">
         <v>128</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G80" t="s">
         <v>129</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H80" t="s">
         <v>117</v>
       </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" t="s">
+        <v>137</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" t="s">
+        <v>129</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" t="s">
+        <v>138</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G82" t="s">
+        <v>129</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" t="s">
+        <v>136</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
